--- a/reports/617117_Test_Single VDX PL.xlsx
+++ b/reports/617117_Test_Single VDX PL.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EOC_Module\EOC_Module\reports\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D27D6946-31E4-4CBD-81CB-69DC90F37B52}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Delivery Summary" sheetId="1" r:id="rId1"/>
     <sheet name="VDX Details" sheetId="2" r:id="rId2"/>
     <sheet name="Definition" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="206">
   <si>
     <t>Placement#</t>
   </si>
@@ -639,16 +645,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="€#,###0.00"/>
-    <numFmt numFmtId="165" formatCode="#,##0"/>
-    <numFmt numFmtId="165" formatCode="#,##0"/>
-    <numFmt numFmtId="165" formatCode="#,##0"/>
-    <numFmt numFmtId="166" formatCode="0.00%"/>
-    <numFmt numFmtId="166" formatCode="0.00%"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="\€##,##0.00"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -687,8 +688,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -707,6 +716,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -720,7 +747,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -738,34 +765,190 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="123">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD6DCE4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD6DCE4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD6DCE4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD6DCE4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD6DCE4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD6DCE4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD6DCE4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD6DCE4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF2F2F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF2F2F2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B0F0"/>
+          <bgColor rgb="FFA5A5A5"/>
         </patternFill>
       </fill>
     </dxf>
@@ -775,14 +958,18 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
+          <bgColor rgb="FFA5A5A5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
       <font>
         <b/>
       </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
       <fill>
         <patternFill>
           <bgColor rgb="FFA5A5A5"/>
@@ -790,37 +977,42 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="€#,###0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
       <font>
         <b/>
       </font>
-      <numFmt numFmtId="165" formatCode="#,##0"/>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
       <fill>
         <patternFill>
           <bgColor rgb="FFA5A5A5"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
       <font>
         <b/>
       </font>
-      <numFmt numFmtId="166" formatCode="0.00%"/>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
       <fill>
         <patternFill>
           <bgColor rgb="FFA5A5A5"/>
@@ -828,9 +1020,13 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
       <fill>
         <patternFill>
           <bgColor rgb="FFA5A5A5"/>
@@ -838,28 +1034,548 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF2F2F2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD6DCE4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D9D9"/>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA5A5A5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA5A5A5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA5A5A5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA5A5A5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA5A5A5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA5A5A5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA5A5A5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA5A5A5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA5A5A5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA5A5A5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA5A5A5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA5A5A5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA5A5A5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="\€##,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA5A5A5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA5A5A5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="\€##,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA5A5A5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA5A5A5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="\€##,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA5A5A5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA5A5A5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA5A5A5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA5A5A5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA5A5A5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA5A5A5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA5A5A5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA5A5A5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA5A5A5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA5A5A5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -882,6 +1598,11 @@
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Picture 1" descr="Exponential.png">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
@@ -920,7 +1641,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3" descr="Client_Logo.png"/>
+        <xdr:cNvPr id="4" name="Picture 3" descr="Client_Logo.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -965,6 +1692,11 @@
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Picture 1" descr="Exponential.png">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
@@ -1003,7 +1735,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3" descr="Client_Logo.png"/>
+        <xdr:cNvPr id="4" name="Picture 3" descr="Client_Logo.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1026,6 +1764,71 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1056640</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>863600</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>40640</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Speech Bubble: Rectangle with Corners Rounded 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4220E5C-FCCC-4A00-AA87-9CC60824AD09}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16814800" y="11450320"/>
+          <a:ext cx="1564640" cy="741680"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -317587"/>
+            <a:gd name="adj2" fmla="val 352911"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1800"/>
+            <a:t>VWR Numbers</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1046,7 +1849,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="Exponential.png"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Exponential.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1115,7 +1924,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1147,9 +1956,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1181,6 +2008,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1356,27 +2201,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:R11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="30.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="21.7109375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="17.7109375" style="3" customWidth="1"/>
-    <col min="10" max="18" width="17.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="30.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="21.6640625" style="3" customWidth="1"/>
+    <col min="9" max="18" width="17.6640625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="6" customHeight="1"/>
-    <row r="2" spans="2:14" s="1" customFormat="1">
+    <row r="1" spans="2:14" ht="6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>16</v>
       </c>
@@ -1393,7 +2237,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="2:14" s="1" customFormat="1">
+    <row r="3" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>18</v>
       </c>
@@ -1410,7 +2254,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="2:14" s="1" customFormat="1">
+    <row r="4" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>24</v>
       </c>
@@ -1424,12 +2268,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="2:14">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C8" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="2:14" ht="29" customHeight="1">
+    <row r="9" spans="2:14" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="2" t="s">
         <v>0</v>
       </c>
@@ -1467,7 +2311,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="2:14">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C10" s="2">
         <v>1</v>
       </c>
@@ -1484,7 +2328,7 @@
         <v>15</v>
       </c>
       <c r="H10" s="3">
-        <v>0.7509750000000001</v>
+        <v>0.75097500000000006</v>
       </c>
       <c r="I10" s="3">
         <v>12750</v>
@@ -1499,150 +2343,150 @@
         <v>0</v>
       </c>
       <c r="M10" s="3">
-        <v>0.805159618329603</v>
+        <v>0.80515961832960303</v>
       </c>
       <c r="N10" s="3">
         <v>10265.82825</v>
       </c>
     </row>
-    <row r="11" spans="2:14">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C11" s="5" t="s">
         <v>31</v>
       </c>
       <c r="I11" s="6">
-        <f>sum(I10:I10)</f>
+        <f>SUM(I10:I10)</f>
+        <v>12750</v>
+      </c>
+      <c r="J11" s="7">
+        <f>SUM(J10:J10)</f>
+        <v>16978</v>
+      </c>
+      <c r="K11" s="7">
+        <f>SUM(K10:K10)</f>
+        <v>13670</v>
+      </c>
+      <c r="L11" s="7">
+        <f>SUM(L10:L10)</f>
         <v>0</v>
       </c>
-      <c r="J11" s="7">
-        <f>sum(J10:J10)</f>
-        <v>0</v>
-      </c>
-      <c r="K11" s="7">
-        <f>sum(K10:K10)</f>
-        <v>0</v>
-      </c>
-      <c r="L11" s="7">
-        <f>sum(L10:L10)</f>
-        <v>0</v>
-      </c>
       <c r="N11" s="6">
-        <f>sum(N10:N10)</f>
-        <v>0</v>
+        <f>SUM(N10:N10)</f>
+        <v>10265.82825</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:R5">
-    <cfRule type="containsBlanks" dxfId="0" priority="26">
+    <cfRule type="containsBlanks" dxfId="122" priority="26">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="27">
+    <cfRule type="notContainsBlanks" dxfId="121" priority="27">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="5">
+    <cfRule type="notContainsBlanks" dxfId="120" priority="5">
       <formula>LEN(TRIM(C11))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="2" priority="6">
+    <cfRule type="containsBlanks" dxfId="119" priority="6">
       <formula>LEN(TRIM(C11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8:N8">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="118" priority="1">
       <formula>LEN(TRIM(C8))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="0" priority="2">
+    <cfRule type="containsBlanks" dxfId="117" priority="2">
       <formula>LEN(TRIM(C8))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9:N9">
-    <cfRule type="containsBlanks" dxfId="1" priority="3">
+    <cfRule type="containsBlanks" dxfId="116" priority="3">
       <formula>LEN(TRIM(C9))=0</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="1" priority="4">
+    <cfRule type="notContainsBlanks" dxfId="115" priority="4">
       <formula>LEN(TRIM(C9))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="7">
+    <cfRule type="notContainsBlanks" dxfId="114" priority="7">
       <formula>LEN(TRIM(D11))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="2" priority="8">
+    <cfRule type="containsBlanks" dxfId="113" priority="8">
       <formula>LEN(TRIM(D11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="9">
+    <cfRule type="notContainsBlanks" dxfId="112" priority="9">
       <formula>LEN(TRIM(E11))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="2" priority="10">
+    <cfRule type="containsBlanks" dxfId="111" priority="10">
       <formula>LEN(TRIM(E11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="11">
+    <cfRule type="notContainsBlanks" dxfId="110" priority="11">
       <formula>LEN(TRIM(F11))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="2" priority="12">
+    <cfRule type="containsBlanks" dxfId="109" priority="12">
       <formula>LEN(TRIM(F11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="13">
+    <cfRule type="notContainsBlanks" dxfId="108" priority="13">
       <formula>LEN(TRIM(G11))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="2" priority="14">
+    <cfRule type="containsBlanks" dxfId="107" priority="14">
       <formula>LEN(TRIM(G11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="15">
+    <cfRule type="notContainsBlanks" dxfId="106" priority="15">
       <formula>LEN(TRIM(H10))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="16">
+    <cfRule type="notContainsBlanks" dxfId="105" priority="16">
       <formula>LEN(TRIM(H11))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="2" priority="17">
+    <cfRule type="containsBlanks" dxfId="104" priority="17">
       <formula>LEN(TRIM(H11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="18">
+    <cfRule type="notContainsBlanks" dxfId="103" priority="18">
       <formula>LEN(TRIM(I10))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="19">
+    <cfRule type="notContainsBlanks" dxfId="102" priority="19">
       <formula>LEN(TRIM(J10))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="20">
+    <cfRule type="notContainsBlanks" dxfId="101" priority="20">
       <formula>LEN(TRIM(K10))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="21">
+    <cfRule type="notContainsBlanks" dxfId="100" priority="21">
       <formula>LEN(TRIM(L10))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M10">
-    <cfRule type="notContainsBlanks" dxfId="5" priority="24">
+    <cfRule type="notContainsBlanks" dxfId="99" priority="24">
       <formula>LEN(TRIM(M10))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M11">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="22">
+    <cfRule type="notContainsBlanks" dxfId="98" priority="22">
       <formula>LEN(TRIM(M11))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="2" priority="23">
+    <cfRule type="containsBlanks" dxfId="97" priority="23">
       <formula>LEN(TRIM(M11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N10">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="25">
+    <cfRule type="notContainsBlanks" dxfId="96" priority="25">
       <formula>LEN(TRIM(N10))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1652,20 +2496,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:X107"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A54" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="47.7109375" customWidth="1"/>
-    <col min="3" max="24" width="25.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" customWidth="1"/>
+    <col min="2" max="2" width="47.6640625" customWidth="1"/>
+    <col min="3" max="24" width="25.6640625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="6" customHeight="1"/>
-    <row r="2" spans="2:13" s="1" customFormat="1">
+    <row r="1" spans="2:13" ht="6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>16</v>
       </c>
@@ -1682,7 +2528,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="2:13" s="1" customFormat="1">
+    <row r="3" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>18</v>
       </c>
@@ -1699,7 +2545,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="2:13" s="1" customFormat="1">
+    <row r="4" spans="2:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>24</v>
       </c>
@@ -1713,12 +2559,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="2:13">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="2:13">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
         <v>86</v>
       </c>
@@ -1756,12 +2602,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="2:13">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="2:13">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>33</v>
       </c>
@@ -1772,16 +2618,16 @@
         <v>11023</v>
       </c>
       <c r="E11" s="3">
-        <v>0.01446111582667652</v>
+        <v>1.4461115826676521E-2</v>
       </c>
       <c r="F11" s="3">
         <v>228</v>
       </c>
       <c r="G11" s="3">
-        <v>0.0002991140713492012</v>
+        <v>2.9911407134920119E-4</v>
       </c>
       <c r="H11" s="3">
-        <v>0.02068402431280051</v>
+        <v>2.068402431280051E-2</v>
       </c>
       <c r="I11" s="3">
         <v>2514</v>
@@ -1790,16 +2636,16 @@
         <v>36</v>
       </c>
       <c r="K11" s="3">
-        <v>0.2280685838700899</v>
+        <v>0.22806858387008991</v>
       </c>
       <c r="L11" s="3">
-        <v>0.06559012972874897</v>
+        <v>6.5590129728748975E-2</v>
       </c>
       <c r="M11" s="3">
         <v>13.91</v>
       </c>
     </row>
-    <row r="12" spans="2:13">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>34</v>
       </c>
@@ -1810,22 +2656,22 @@
         <v>2065</v>
       </c>
       <c r="E12" s="3">
-        <v>0.0741765149610259</v>
+        <v>7.4176514961025897E-2</v>
       </c>
       <c r="F12" s="3">
         <v>123</v>
       </c>
       <c r="G12" s="3">
-        <v>0.004418262150220913</v>
+        <v>4.418262150220913E-3</v>
       </c>
       <c r="H12" s="3">
-        <v>0.02179176755447942</v>
+        <v>2.1791767554479421E-2</v>
       </c>
       <c r="I12" s="3">
         <v>16715</v>
       </c>
       <c r="J12" s="3">
-        <v>0.6004166816336793</v>
+        <v>0.60041668163367934</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>36</v>
@@ -1837,7 +2683,7 @@
         <v>29.96</v>
       </c>
     </row>
-    <row r="13" spans="2:13">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>35</v>
       </c>
@@ -1848,7 +2694,7 @@
         <v>582</v>
       </c>
       <c r="E13" s="3">
-        <v>0.006726379659058076</v>
+        <v>6.7263796590580757E-3</v>
       </c>
       <c r="F13" s="3">
         <v>0</v>
@@ -1866,16 +2712,16 @@
         <v>36</v>
       </c>
       <c r="K13" s="3">
-        <v>0.08247422680412371</v>
+        <v>8.247422680412371E-2</v>
       </c>
       <c r="L13" s="3">
-        <v>0.2474226804123711</v>
+        <v>0.24742268041237109</v>
       </c>
       <c r="M13" s="3">
-        <v>9.039999999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13">
+        <v>9.0399999999999991</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>37</v>
       </c>
@@ -1886,33 +2732,33 @@
         <v>13670</v>
       </c>
       <c r="E15" s="3">
-        <v>0.01559407493597531</v>
+        <v>1.5594074935975311E-2</v>
       </c>
       <c r="F15" s="3">
         <v>351</v>
       </c>
       <c r="G15" s="3">
-        <v>0.0004004038260810048</v>
+        <v>4.0040382608100478E-4</v>
       </c>
       <c r="H15" s="3">
-        <v>0.01997073884418435</v>
+        <v>1.9970738844184349E-2</v>
       </c>
       <c r="I15" s="3">
         <v>19277</v>
       </c>
       <c r="L15" s="3">
-        <v>0.09919531821506949</v>
+        <v>9.9195318215069495E-2</v>
       </c>
       <c r="M15" s="3">
         <v>16.13</v>
       </c>
     </row>
-    <row r="19" spans="2:13">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="2:13">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="4" t="s">
         <v>99</v>
       </c>
@@ -1950,12 +2796,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="21" spans="2:13">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="2:13">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>38</v>
       </c>
@@ -1966,16 +2812,16 @@
         <v>2901</v>
       </c>
       <c r="E22" s="3">
-        <v>0.01907975218026124</v>
+        <v>1.9079752180261238E-2</v>
       </c>
       <c r="F22" s="3">
         <v>52</v>
       </c>
       <c r="G22" s="3">
-        <v>0.0003420017626244689</v>
+        <v>3.4200176262446893E-4</v>
       </c>
       <c r="H22" s="3">
-        <v>0.01792485349879352</v>
+        <v>1.7924853498793521E-2</v>
       </c>
       <c r="I22" s="3">
         <v>596</v>
@@ -1984,16 +2830,16 @@
         <v>36</v>
       </c>
       <c r="K22" s="3">
-        <v>0.2054463977938641</v>
+        <v>0.20544639779386409</v>
       </c>
       <c r="L22" s="3">
-        <v>0.05377456049638056</v>
+        <v>5.3774560496380561E-2</v>
       </c>
       <c r="M22" s="3">
         <v>12.68</v>
       </c>
     </row>
-    <row r="23" spans="2:13">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>39</v>
       </c>
@@ -2004,22 +2850,22 @@
         <v>2065</v>
       </c>
       <c r="E23" s="3">
-        <v>0.0741765149610259</v>
+        <v>7.4176514961025897E-2</v>
       </c>
       <c r="F23" s="3">
         <v>123</v>
       </c>
       <c r="G23" s="3">
-        <v>0.004418262150220913</v>
+        <v>4.418262150220913E-3</v>
       </c>
       <c r="H23" s="3">
-        <v>0.02179176755447942</v>
+        <v>2.1791767554479421E-2</v>
       </c>
       <c r="I23" s="3">
         <v>16715</v>
       </c>
       <c r="J23" s="3">
-        <v>0.6004166816336793</v>
+        <v>0.60041668163367934</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>36</v>
@@ -2031,7 +2877,7 @@
         <v>29.96</v>
       </c>
     </row>
-    <row r="24" spans="2:13">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>40</v>
       </c>
@@ -2042,16 +2888,16 @@
         <v>4272</v>
       </c>
       <c r="E24" s="3">
-        <v>0.01304638613271766</v>
+        <v>1.304638613271766E-2</v>
       </c>
       <c r="F24" s="3">
         <v>62</v>
       </c>
       <c r="G24" s="3">
-        <v>0.0001893436189673443</v>
+        <v>1.893436189673443E-4</v>
       </c>
       <c r="H24" s="3">
-        <v>0.01451310861423221</v>
+        <v>1.451310861423221E-2</v>
       </c>
       <c r="I24" s="3">
         <v>856</v>
@@ -2060,16 +2906,16 @@
         <v>36</v>
       </c>
       <c r="K24" s="3">
-        <v>0.200374531835206</v>
+        <v>0.20037453183520601</v>
       </c>
       <c r="L24" s="3">
-        <v>0.08731273408239701</v>
+        <v>8.7312734082397009E-2</v>
       </c>
       <c r="M24" s="3">
         <v>12.86</v>
       </c>
     </row>
-    <row r="25" spans="2:13">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>41</v>
       </c>
@@ -2080,16 +2926,16 @@
         <v>428</v>
       </c>
       <c r="E25" s="3">
-        <v>0.02087499390333122</v>
+        <v>2.087499390333122E-2</v>
       </c>
       <c r="F25" s="3">
         <v>16</v>
       </c>
       <c r="G25" s="3">
-        <v>0.0007803736038628494</v>
+        <v>7.8037360386284938E-4</v>
       </c>
       <c r="H25" s="3">
-        <v>0.03738317757009346</v>
+        <v>3.7383177570093462E-2</v>
       </c>
       <c r="I25" s="3">
         <v>126</v>
@@ -2098,16 +2944,16 @@
         <v>36</v>
       </c>
       <c r="K25" s="3">
-        <v>0.294392523364486</v>
+        <v>0.29439252336448601</v>
       </c>
       <c r="L25" s="3">
-        <v>0.06775700934579439</v>
+        <v>6.7757009345794386E-2</v>
       </c>
       <c r="M25" s="3">
         <v>15.26</v>
       </c>
     </row>
-    <row r="26" spans="2:13">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>42</v>
       </c>
@@ -2118,16 +2964,16 @@
         <v>3229</v>
       </c>
       <c r="E26" s="3">
-        <v>0.01003044234592445</v>
+        <v>1.0030442345924449E-2</v>
       </c>
       <c r="F26" s="3">
         <v>78</v>
       </c>
       <c r="G26" s="3">
-        <v>0.0002422962226640159</v>
+        <v>2.4229622266401591E-4</v>
       </c>
       <c r="H26" s="3">
-        <v>0.02415608547537938</v>
+        <v>2.4156085475379379E-2</v>
       </c>
       <c r="I26" s="3">
         <v>848</v>
@@ -2136,16 +2982,16 @@
         <v>36</v>
       </c>
       <c r="K26" s="3">
-        <v>0.262620006193868</v>
+        <v>0.26262000619386799</v>
       </c>
       <c r="L26" s="3">
-        <v>0.06658408175905853</v>
+        <v>6.6584081759058528E-2</v>
       </c>
       <c r="M26" s="3">
         <v>15.63</v>
       </c>
     </row>
-    <row r="27" spans="2:13">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>43</v>
       </c>
@@ -2156,16 +3002,16 @@
         <v>775</v>
       </c>
       <c r="E27" s="3">
-        <v>0.02885331347728965</v>
+        <v>2.8853313477289651E-2</v>
       </c>
       <c r="F27" s="3">
         <v>20</v>
       </c>
       <c r="G27" s="3">
-        <v>0.0007446016381236039</v>
+        <v>7.4460163812360388E-4</v>
       </c>
       <c r="H27" s="3">
-        <v>0.02580645161290323</v>
+        <v>2.5806451612903229E-2</v>
       </c>
       <c r="I27" s="3">
         <v>136</v>
@@ -2183,7 +3029,7 @@
         <v>12.79</v>
       </c>
     </row>
-    <row r="29" spans="2:13">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>37</v>
       </c>
@@ -2194,33 +3040,33 @@
         <v>13670</v>
       </c>
       <c r="E29" s="3">
-        <v>0.01559407493597531</v>
+        <v>1.5594074935975311E-2</v>
       </c>
       <c r="F29" s="3">
         <v>351</v>
       </c>
       <c r="G29" s="3">
-        <v>0.0004004038260810048</v>
+        <v>4.0040382608100478E-4</v>
       </c>
       <c r="H29" s="3">
-        <v>0.01997073884418435</v>
+        <v>1.9970738844184349E-2</v>
       </c>
       <c r="I29" s="3">
         <v>19277</v>
       </c>
       <c r="L29" s="3">
-        <v>0.09919531821506949</v>
+        <v>9.9195318215069495E-2</v>
       </c>
       <c r="M29" s="3">
         <v>16.13</v>
       </c>
     </row>
-    <row r="33" spans="2:24">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B33" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="34" spans="2:24">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B34" s="4" t="s">
         <v>86</v>
       </c>
@@ -2246,12 +3092,12 @@
         <v>108</v>
       </c>
     </row>
-    <row r="35" spans="2:24">
+    <row r="35" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="2:24">
+    <row r="36" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>33</v>
       </c>
@@ -2277,7 +3123,7 @@
         <v>0.2280685838700898</v>
       </c>
     </row>
-    <row r="37" spans="2:24">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>33</v>
       </c>
@@ -2300,10 +3146,10 @@
         <v>1293</v>
       </c>
       <c r="I37" s="3">
-        <v>0.57543391188251</v>
-      </c>
-    </row>
-    <row r="38" spans="2:24">
+        <v>0.57543391188251003</v>
+      </c>
+    </row>
+    <row r="38" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>34</v>
       </c>
@@ -2326,10 +3172,10 @@
         <v>16715</v>
       </c>
       <c r="I38" s="3">
-        <v>0.6004166816336793</v>
-      </c>
-    </row>
-    <row r="39" spans="2:24">
+        <v>0.60041668163367934</v>
+      </c>
+    </row>
+    <row r="39" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>34</v>
       </c>
@@ -2352,10 +3198,10 @@
         <v>970</v>
       </c>
       <c r="I39" s="3">
-        <v>0.6466666666666666</v>
-      </c>
-    </row>
-    <row r="40" spans="2:24">
+        <v>0.64666666666666661</v>
+      </c>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>35</v>
       </c>
@@ -2378,10 +3224,10 @@
         <v>48</v>
       </c>
       <c r="I40" s="3">
-        <v>0.08247422680412371</v>
-      </c>
-    </row>
-    <row r="41" spans="2:24">
+        <v>8.247422680412371E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>35</v>
       </c>
@@ -2407,12 +3253,12 @@
         <v>0.2121212121212121</v>
       </c>
     </row>
-    <row r="45" spans="2:24">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B45" s="4" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="46" spans="2:24">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.3">
       <c r="C46" s="8" t="s">
         <v>110</v>
       </c>
@@ -2423,7 +3269,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="47" spans="2:24">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>46</v>
       </c>
@@ -2494,7 +3340,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="48" spans="2:24">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>33</v>
       </c>
@@ -2562,11 +3408,11 @@
         <v>103</v>
       </c>
       <c r="X48" s="9">
-        <f>sum(C48:W48)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:24">
+        <f>SUM(C48:W48)</f>
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="49" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>34</v>
       </c>
@@ -2634,11 +3480,11 @@
         <v>57</v>
       </c>
       <c r="X49" s="9">
-        <f>sum(C49:W49)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="2:24">
+        <f>SUM(C49:W49)</f>
+        <v>960</v>
+      </c>
+    </row>
+    <row r="50" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>35</v>
       </c>
@@ -2706,109 +3552,109 @@
         <v>104</v>
       </c>
       <c r="X50" s="9">
-        <f>sum(C50:W50)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="2:24">
+        <f>SUM(C50:W50)</f>
+        <v>257</v>
+      </c>
+    </row>
+    <row r="51" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B51" s="10" t="s">
         <v>37</v>
       </c>
       <c r="C51" s="7">
-        <f>sum(C48:C50)</f>
+        <f t="shared" ref="C51:X51" si="0">SUM(C48:C50)</f>
+        <v>71</v>
+      </c>
+      <c r="D51" s="7">
+        <f t="shared" si="0"/>
+        <v>874</v>
+      </c>
+      <c r="E51" s="7">
+        <f t="shared" si="0"/>
+        <v>112</v>
+      </c>
+      <c r="F51" s="7">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="G51" s="7">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="H51" s="7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D51" s="7">
-        <f>sum(D48:D50)</f>
+      <c r="I51" s="7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E51" s="7">
-        <f>sum(E48:E50)</f>
-        <v>0</v>
-      </c>
-      <c r="F51" s="7">
-        <f>sum(F48:F50)</f>
-        <v>0</v>
-      </c>
-      <c r="G51" s="7">
-        <f>sum(G48:G50)</f>
-        <v>0</v>
-      </c>
-      <c r="H51" s="7">
-        <f>sum(H48:H50)</f>
-        <v>0</v>
-      </c>
-      <c r="I51" s="7">
-        <f>sum(I48:I50)</f>
-        <v>0</v>
-      </c>
       <c r="J51" s="7">
-        <f>sum(J48:J50)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
       <c r="K51" s="7">
-        <f>sum(K48:K50)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>26</v>
       </c>
       <c r="L51" s="7">
-        <f>sum(L48:L50)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="M51" s="7">
-        <f>sum(M48:M50)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>29</v>
       </c>
       <c r="N51" s="7">
-        <f>sum(N48:N50)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>28</v>
       </c>
       <c r="O51" s="7">
-        <f>sum(O48:O50)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>21</v>
       </c>
       <c r="P51" s="7">
-        <f>sum(P48:P50)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>159</v>
       </c>
       <c r="Q51" s="7">
-        <f>sum(Q48:Q50)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>66</v>
       </c>
       <c r="R51" s="7">
-        <f>sum(R48:R50)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>152</v>
       </c>
       <c r="S51" s="7">
-        <f>sum(S48:S50)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>129</v>
       </c>
       <c r="T51" s="7">
-        <f>sum(T48:T50)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>151</v>
       </c>
       <c r="U51" s="7">
-        <f>sum(U48:U50)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>260</v>
       </c>
       <c r="V51" s="7">
-        <f>sum(V48:V50)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>77</v>
       </c>
       <c r="W51" s="7">
-        <f>sum(W48:W50)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>264</v>
       </c>
       <c r="X51" s="7">
-        <f>sum(X48:X50)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="2:24">
+        <f t="shared" si="0"/>
+        <v>2559</v>
+      </c>
+    </row>
+    <row r="55" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B55" s="11" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="56" spans="2:24">
+    <row r="56" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B56" s="11" t="s">
         <v>86</v>
       </c>
@@ -2837,1828 +3683,1829 @@
         <v>108</v>
       </c>
     </row>
-    <row r="57" spans="2:24">
+    <row r="57" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="58" spans="2:24">
-      <c r="B58" t="s">
+    <row r="58" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B58" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C58" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="20">
         <v>11796</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E58" s="20">
         <v>223</v>
       </c>
-      <c r="F58" s="3">
-        <v>0.01890471346219057</v>
-      </c>
-      <c r="G58" s="3">
+      <c r="F58" s="20">
+        <v>1.8904713462190571E-2</v>
+      </c>
+      <c r="G58" s="25">
         <v>1</v>
       </c>
-      <c r="H58" s="3">
-        <v>0.004484304932735426</v>
-      </c>
-      <c r="I58" s="3">
+      <c r="H58" s="25">
+        <v>4.4843049327354259E-3</v>
+      </c>
+      <c r="I58" s="20">
         <v>73</v>
       </c>
-      <c r="J58" s="3">
+      <c r="J58" s="20">
         <v>0.3273542600896861</v>
       </c>
     </row>
-    <row r="59" spans="2:24">
-      <c r="B59" t="s">
+    <row r="59" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B59" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C59" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D59" s="20">
         <v>23018</v>
       </c>
-      <c r="E59" s="3">
+      <c r="E59" s="20">
         <v>473</v>
       </c>
-      <c r="F59" s="3">
-        <v>0.02054913545920584</v>
-      </c>
-      <c r="G59" s="3">
+      <c r="F59" s="20">
+        <v>2.054913545920584E-2</v>
+      </c>
+      <c r="G59" s="25">
         <v>10</v>
       </c>
-      <c r="H59" s="3">
-        <v>0.02114164904862579</v>
-      </c>
-      <c r="I59" s="3">
+      <c r="H59" s="25">
+        <v>2.1141649048625789E-2</v>
+      </c>
+      <c r="I59" s="20">
         <v>123</v>
       </c>
-      <c r="J59" s="3">
-        <v>0.2600422832980973</v>
-      </c>
-    </row>
-    <row r="60" spans="2:24">
-      <c r="B60" t="s">
+      <c r="J59" s="20">
+        <v>0.26004228329809731</v>
+      </c>
+    </row>
+    <row r="60" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B60" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C60" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="D60" s="3">
+      <c r="D60" s="20">
         <v>34082</v>
       </c>
-      <c r="E60" s="3">
+      <c r="E60" s="20">
         <v>567</v>
       </c>
-      <c r="F60" s="3">
-        <v>0.01663634763218121</v>
-      </c>
-      <c r="G60" s="3">
+      <c r="F60" s="20">
+        <v>1.6636347632181209E-2</v>
+      </c>
+      <c r="G60" s="25">
         <v>17</v>
       </c>
-      <c r="H60" s="3">
-        <v>0.02998236331569665</v>
-      </c>
-      <c r="I60" s="3">
+      <c r="H60" s="25">
+        <v>2.9982363315696651E-2</v>
+      </c>
+      <c r="I60" s="20">
         <v>148</v>
       </c>
-      <c r="J60" s="3">
-        <v>0.2610229276895943</v>
-      </c>
-    </row>
-    <row r="61" spans="2:24">
-      <c r="B61" t="s">
+      <c r="J60" s="20">
+        <v>0.26102292768959429</v>
+      </c>
+    </row>
+    <row r="61" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B61" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C61" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="D61" s="3">
+      <c r="D61" s="20">
         <v>59348</v>
       </c>
-      <c r="E61" s="3">
+      <c r="E61" s="20">
         <v>650</v>
       </c>
-      <c r="F61" s="3">
-        <v>0.01095234885758577</v>
-      </c>
-      <c r="G61" s="3">
+      <c r="F61" s="20">
+        <v>1.095234885758577E-2</v>
+      </c>
+      <c r="G61" s="25">
         <v>15</v>
       </c>
-      <c r="H61" s="3">
-        <v>0.02307692307692308</v>
-      </c>
-      <c r="I61" s="3">
+      <c r="H61" s="25">
+        <v>2.3076923076923082E-2</v>
+      </c>
+      <c r="I61" s="20">
         <v>163</v>
       </c>
-      <c r="J61" s="3">
-        <v>0.2507692307692307</v>
-      </c>
-    </row>
-    <row r="62" spans="2:24">
-      <c r="B62" t="s">
+      <c r="J61" s="20">
+        <v>0.25076923076923069</v>
+      </c>
+    </row>
+    <row r="62" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B62" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="C62" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="D62" s="3">
+      <c r="D62" s="20">
         <v>55291</v>
       </c>
-      <c r="E62" s="3">
+      <c r="E62" s="20">
         <v>632</v>
       </c>
-      <c r="F62" s="3">
-        <v>0.01143043171583079</v>
-      </c>
-      <c r="G62" s="3">
+      <c r="F62" s="20">
+        <v>1.143043171583079E-2</v>
+      </c>
+      <c r="G62" s="25">
         <v>18</v>
       </c>
-      <c r="H62" s="3">
-        <v>0.02848101265822785</v>
-      </c>
-      <c r="I62" s="3">
+      <c r="H62" s="25">
+        <v>2.8481012658227851E-2</v>
+      </c>
+      <c r="I62" s="20">
         <v>176</v>
       </c>
-      <c r="J62" s="3">
-        <v>0.2784810126582278</v>
-      </c>
-    </row>
-    <row r="63" spans="2:24">
-      <c r="B63" t="s">
+      <c r="J62" s="20">
+        <v>0.27848101265822778</v>
+      </c>
+    </row>
+    <row r="63" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B63" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C63" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="D63" s="3">
+      <c r="D63" s="20">
         <v>61556</v>
       </c>
-      <c r="E63" s="3">
+      <c r="E63" s="20">
         <v>755</v>
       </c>
-      <c r="F63" s="3">
-        <v>0.01226525440249529</v>
-      </c>
-      <c r="G63" s="3">
+      <c r="F63" s="20">
+        <v>1.226525440249529E-2</v>
+      </c>
+      <c r="G63" s="25">
         <v>14</v>
       </c>
-      <c r="H63" s="3">
-        <v>0.0185430463576159</v>
-      </c>
-      <c r="I63" s="3">
+      <c r="H63" s="25">
+        <v>1.8543046357615899E-2</v>
+      </c>
+      <c r="I63" s="20">
         <v>198</v>
       </c>
-      <c r="J63" s="3">
-        <v>0.262251655629139</v>
-      </c>
-    </row>
-    <row r="64" spans="2:24">
-      <c r="B64" t="s">
+      <c r="J63" s="20">
+        <v>0.26225165562913899</v>
+      </c>
+    </row>
+    <row r="64" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B64" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C64" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="D64" s="3">
+      <c r="D64" s="20">
         <v>64645</v>
       </c>
-      <c r="E64" s="3">
+      <c r="E64" s="20">
         <v>770</v>
       </c>
-      <c r="F64" s="3">
-        <v>0.01191120736329182</v>
-      </c>
-      <c r="G64" s="3">
+      <c r="F64" s="20">
+        <v>1.191120736329182E-2</v>
+      </c>
+      <c r="G64" s="25">
         <v>19</v>
       </c>
-      <c r="H64" s="3">
-        <v>0.02467532467532468</v>
-      </c>
-      <c r="I64" s="3">
+      <c r="H64" s="25">
+        <v>2.467532467532468E-2</v>
+      </c>
+      <c r="I64" s="20">
         <v>169</v>
       </c>
-      <c r="J64" s="3">
+      <c r="J64" s="20">
         <v>0.2194805194805195</v>
       </c>
     </row>
-    <row r="65" spans="2:10">
-      <c r="B65" t="s">
+    <row r="65" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B65" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C65" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="D65" s="3">
+      <c r="D65" s="20">
         <v>50871</v>
       </c>
-      <c r="E65" s="3">
+      <c r="E65" s="20">
         <v>774</v>
       </c>
-      <c r="F65" s="3">
-        <v>0.01521495547561479</v>
-      </c>
-      <c r="G65" s="3">
+      <c r="F65" s="20">
+        <v>1.5214955475614789E-2</v>
+      </c>
+      <c r="G65" s="25">
         <v>15</v>
       </c>
-      <c r="H65" s="3">
-        <v>0.01937984496124031</v>
-      </c>
-      <c r="I65" s="3">
+      <c r="H65" s="25">
+        <v>1.937984496124031E-2</v>
+      </c>
+      <c r="I65" s="20">
         <v>163</v>
       </c>
-      <c r="J65" s="3">
+      <c r="J65" s="20">
         <v>0.210594315245478</v>
       </c>
     </row>
-    <row r="66" spans="2:10">
-      <c r="B66" t="s">
+    <row r="66" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B66" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C66" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66" s="20">
         <v>42422</v>
       </c>
-      <c r="E66" s="3">
+      <c r="E66" s="20">
         <v>800</v>
       </c>
-      <c r="F66" s="3">
-        <v>0.01885813964452407</v>
-      </c>
-      <c r="G66" s="3">
+      <c r="F66" s="20">
+        <v>1.8858139644524069E-2</v>
+      </c>
+      <c r="G66" s="25">
         <v>16</v>
       </c>
-      <c r="H66" s="3">
+      <c r="H66" s="25">
         <v>0.02</v>
       </c>
-      <c r="I66" s="3">
+      <c r="I66" s="20">
         <v>175</v>
       </c>
-      <c r="J66" s="3">
+      <c r="J66" s="20">
         <v>0.21875</v>
       </c>
     </row>
-    <row r="67" spans="2:10">
-      <c r="B67" t="s">
+    <row r="67" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B67" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C67" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="D67" s="3">
+      <c r="D67" s="20">
         <v>40679</v>
       </c>
-      <c r="E67" s="3">
+      <c r="E67" s="20">
         <v>749</v>
       </c>
-      <c r="F67" s="3">
-        <v>0.01841244868359596</v>
-      </c>
-      <c r="G67" s="3">
+      <c r="F67" s="20">
+        <v>1.8412448683595959E-2</v>
+      </c>
+      <c r="G67" s="25">
         <v>15</v>
       </c>
-      <c r="H67" s="3">
-        <v>0.02002670226969292</v>
-      </c>
-      <c r="I67" s="3">
+      <c r="H67" s="25">
+        <v>2.0026702269692921E-2</v>
+      </c>
+      <c r="I67" s="20">
         <v>151</v>
       </c>
-      <c r="J67" s="3">
-        <v>0.2016021361815754</v>
-      </c>
-    </row>
-    <row r="68" spans="2:10">
-      <c r="B68" t="s">
+      <c r="J67" s="20">
+        <v>0.20160213618157541</v>
+      </c>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B68" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="C68" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="D68" s="3">
+      <c r="D68" s="20">
         <v>32144</v>
       </c>
-      <c r="E68" s="3">
+      <c r="E68" s="20">
         <v>446</v>
       </c>
-      <c r="F68" s="3">
-        <v>0.01387506222000996</v>
-      </c>
-      <c r="G68" s="3">
+      <c r="F68" s="20">
+        <v>1.387506222000996E-2</v>
+      </c>
+      <c r="G68" s="25">
         <v>7</v>
       </c>
-      <c r="H68" s="3">
-        <v>0.01569506726457399</v>
-      </c>
-      <c r="I68" s="3">
+      <c r="H68" s="25">
+        <v>1.5695067264573991E-2</v>
+      </c>
+      <c r="I68" s="20">
         <v>95</v>
       </c>
-      <c r="J68" s="3">
-        <v>0.2130044843049327</v>
-      </c>
-    </row>
-    <row r="69" spans="2:10">
-      <c r="B69" t="s">
+      <c r="J68" s="20">
+        <v>0.21300448430493271</v>
+      </c>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B69" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="C69" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="D69" s="3">
+      <c r="D69" s="20">
         <v>37497</v>
       </c>
-      <c r="E69" s="3">
+      <c r="E69" s="20">
         <v>474</v>
       </c>
-      <c r="F69" s="3">
-        <v>0.01264101128090247</v>
-      </c>
-      <c r="G69" s="3">
+      <c r="F69" s="20">
+        <v>1.264101128090247E-2</v>
+      </c>
+      <c r="G69" s="25">
         <v>6</v>
       </c>
-      <c r="H69" s="3">
-        <v>0.01265822784810127</v>
-      </c>
-      <c r="I69" s="3">
+      <c r="H69" s="25">
+        <v>1.2658227848101271E-2</v>
+      </c>
+      <c r="I69" s="20">
         <v>81</v>
       </c>
-      <c r="J69" s="3">
-        <v>0.1708860759493671</v>
-      </c>
-    </row>
-    <row r="70" spans="2:10">
-      <c r="B70" t="s">
+      <c r="J69" s="20">
+        <v>0.17088607594936711</v>
+      </c>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B70" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="C70" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="D70" s="3">
+      <c r="D70" s="20">
         <v>45534</v>
       </c>
-      <c r="E70" s="3">
+      <c r="E70" s="20">
         <v>503</v>
       </c>
-      <c r="F70" s="3">
-        <v>0.01104669038520666</v>
-      </c>
-      <c r="G70" s="3">
+      <c r="F70" s="20">
+        <v>1.104669038520666E-2</v>
+      </c>
+      <c r="G70" s="25">
         <v>9</v>
       </c>
-      <c r="H70" s="3">
-        <v>0.01789264413518887</v>
-      </c>
-      <c r="I70" s="3">
+      <c r="H70" s="25">
+        <v>1.789264413518887E-2</v>
+      </c>
+      <c r="I70" s="20">
         <v>79</v>
       </c>
-      <c r="J70" s="3">
+      <c r="J70" s="20">
         <v>0.1570576540755467</v>
       </c>
     </row>
-    <row r="71" spans="2:10">
-      <c r="B71" t="s">
+    <row r="71" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B71" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="C71" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="D71" s="3">
+      <c r="D71" s="20">
         <v>35919</v>
       </c>
-      <c r="E71" s="3">
+      <c r="E71" s="20">
         <v>477</v>
       </c>
-      <c r="F71" s="3">
-        <v>0.01327987972939113</v>
-      </c>
-      <c r="G71" s="3">
+      <c r="F71" s="20">
+        <v>1.327987972939113E-2</v>
+      </c>
+      <c r="G71" s="25">
         <v>8</v>
       </c>
-      <c r="H71" s="3">
-        <v>0.01677148846960168</v>
-      </c>
-      <c r="I71" s="3">
+      <c r="H71" s="25">
+        <v>1.6771488469601682E-2</v>
+      </c>
+      <c r="I71" s="20">
         <v>97</v>
       </c>
-      <c r="J71" s="3">
+      <c r="J71" s="20">
         <v>0.2033542976939203</v>
       </c>
     </row>
-    <row r="72" spans="2:10">
-      <c r="B72" t="s">
+    <row r="72" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B72" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="C72" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D72" s="20">
         <v>32169</v>
       </c>
-      <c r="E72" s="3">
+      <c r="E72" s="20">
         <v>505</v>
       </c>
-      <c r="F72" s="3">
-        <v>0.01569834312536915</v>
-      </c>
-      <c r="G72" s="3">
+      <c r="F72" s="20">
+        <v>1.5698343125369149E-2</v>
+      </c>
+      <c r="G72" s="25">
         <v>5</v>
       </c>
-      <c r="H72" s="3">
-        <v>0.009900990099009901</v>
-      </c>
-      <c r="I72" s="3">
+      <c r="H72" s="25">
+        <v>9.9009900990099011E-3</v>
+      </c>
+      <c r="I72" s="20">
         <v>122</v>
       </c>
-      <c r="J72" s="3">
+      <c r="J72" s="20">
         <v>0.2415841584158416</v>
       </c>
     </row>
-    <row r="73" spans="2:10">
-      <c r="B73" t="s">
+    <row r="73" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B73" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="C73" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="D73" s="3">
+      <c r="D73" s="20">
         <v>32040</v>
       </c>
-      <c r="E73" s="3">
+      <c r="E73" s="20">
         <v>606</v>
       </c>
-      <c r="F73" s="3">
-        <v>0.01891385767790262</v>
-      </c>
-      <c r="G73" s="3">
+      <c r="F73" s="20">
+        <v>1.8913857677902619E-2</v>
+      </c>
+      <c r="G73" s="25">
         <v>14</v>
       </c>
-      <c r="H73" s="3">
-        <v>0.0231023102310231</v>
-      </c>
-      <c r="I73" s="3">
+      <c r="H73" s="25">
+        <v>2.3102310231023101E-2</v>
+      </c>
+      <c r="I73" s="20">
         <v>121</v>
       </c>
-      <c r="J73" s="3">
+      <c r="J73" s="20">
         <v>0.1996699669966997</v>
       </c>
     </row>
-    <row r="74" spans="2:10">
-      <c r="B74" t="s">
+    <row r="74" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B74" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="C74" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="D74" s="3">
+      <c r="D74" s="20">
         <v>33932</v>
       </c>
-      <c r="E74" s="3">
+      <c r="E74" s="20">
         <v>582</v>
       </c>
-      <c r="F74" s="3">
-        <v>0.01715195096074502</v>
-      </c>
-      <c r="G74" s="3">
+      <c r="F74" s="20">
+        <v>1.7151950960745021E-2</v>
+      </c>
+      <c r="G74" s="25">
         <v>14</v>
       </c>
-      <c r="H74" s="3">
-        <v>0.02405498281786942</v>
-      </c>
-      <c r="I74" s="3">
+      <c r="H74" s="25">
+        <v>2.4054982817869421E-2</v>
+      </c>
+      <c r="I74" s="20">
         <v>143</v>
       </c>
-      <c r="J74" s="3">
-        <v>0.2457044673539519</v>
-      </c>
-    </row>
-    <row r="75" spans="2:10">
-      <c r="B75" t="s">
+      <c r="J74" s="20">
+        <v>0.24570446735395191</v>
+      </c>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B75" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="C75" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="D75" s="3">
+      <c r="D75" s="20">
         <v>34736</v>
       </c>
-      <c r="E75" s="3">
+      <c r="E75" s="20">
         <v>573</v>
       </c>
-      <c r="F75" s="3">
-        <v>0.01649585444495624</v>
-      </c>
-      <c r="G75" s="3">
+      <c r="F75" s="20">
+        <v>1.6495854444956239E-2</v>
+      </c>
+      <c r="G75" s="25">
         <v>18</v>
       </c>
-      <c r="H75" s="3">
-        <v>0.03141361256544502</v>
-      </c>
-      <c r="I75" s="3">
+      <c r="H75" s="25">
+        <v>3.1413612565445018E-2</v>
+      </c>
+      <c r="I75" s="20">
         <v>134</v>
       </c>
-      <c r="J75" s="3">
+      <c r="J75" s="20">
         <v>0.2338568935427574</v>
       </c>
     </row>
-    <row r="76" spans="2:10">
-      <c r="B76" t="s">
+    <row r="76" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B76" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="C76" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D76" s="20">
         <v>34572</v>
       </c>
-      <c r="E76" s="3">
+      <c r="E76" s="20">
         <v>464</v>
       </c>
-      <c r="F76" s="3">
-        <v>0.01342126576420224</v>
-      </c>
-      <c r="G76" s="3">
+      <c r="F76" s="20">
+        <v>1.342126576420224E-2</v>
+      </c>
+      <c r="G76" s="25">
         <v>7</v>
       </c>
-      <c r="H76" s="3">
-        <v>0.01508620689655172</v>
-      </c>
-      <c r="I76" s="3">
+      <c r="H76" s="25">
+        <v>1.508620689655172E-2</v>
+      </c>
+      <c r="I76" s="20">
         <v>103</v>
       </c>
-      <c r="J76" s="3">
+      <c r="J76" s="20">
         <v>0.2219827586206897</v>
       </c>
     </row>
-    <row r="77" spans="2:10">
-      <c r="B77" t="s">
+    <row r="77" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B77" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="C77" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="D77" s="3">
+      <c r="D77" s="24">
         <v>945</v>
       </c>
-      <c r="E77" s="3">
+      <c r="E77" s="24">
         <v>69</v>
       </c>
-      <c r="F77" s="3">
-        <v>0.07301587301587302</v>
-      </c>
-      <c r="G77" s="3">
+      <c r="F77" s="24">
+        <v>7.301587301587302E-2</v>
+      </c>
+      <c r="G77" s="26">
         <v>4</v>
       </c>
-      <c r="H77" s="3">
-        <v>0.004232804232804233</v>
-      </c>
-      <c r="I77" s="3">
+      <c r="H77" s="26">
+        <v>4.2328042328042331E-3</v>
+      </c>
+      <c r="I77" s="24">
         <v>568</v>
       </c>
-      <c r="J77" s="3">
-        <v>0.6010582010582011</v>
-      </c>
-    </row>
-    <row r="78" spans="2:10">
-      <c r="B78" t="s">
+      <c r="J77" s="24">
+        <v>0.60105820105820107</v>
+      </c>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B78" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="C78" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="D78" s="3">
+      <c r="D78" s="24">
         <v>4534</v>
       </c>
-      <c r="E78" s="3">
+      <c r="E78" s="24">
         <v>330</v>
       </c>
-      <c r="F78" s="3">
-        <v>0.07278341420379356</v>
-      </c>
-      <c r="G78" s="3">
+      <c r="F78" s="24">
+        <v>7.2783414203793556E-2</v>
+      </c>
+      <c r="G78" s="26">
         <v>16</v>
       </c>
-      <c r="H78" s="3">
-        <v>0.0035288928098809</v>
-      </c>
-      <c r="I78" s="3">
+      <c r="H78" s="26">
+        <v>3.5288928098808998E-3</v>
+      </c>
+      <c r="I78" s="24">
         <v>2693</v>
       </c>
-      <c r="J78" s="3">
-        <v>0.593956771063079</v>
-      </c>
-    </row>
-    <row r="79" spans="2:10">
-      <c r="B79" t="s">
+      <c r="J78" s="24">
+        <v>0.59395677106307898</v>
+      </c>
+    </row>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B79" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="C79" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="D79" s="3">
+      <c r="D79" s="24">
         <v>3780</v>
       </c>
-      <c r="E79" s="3">
+      <c r="E79" s="24">
         <v>199</v>
       </c>
-      <c r="F79" s="3">
-        <v>0.05264550264550265</v>
-      </c>
-      <c r="G79" s="3">
+      <c r="F79" s="24">
+        <v>5.2645502645502648E-2</v>
+      </c>
+      <c r="G79" s="26">
         <v>7</v>
       </c>
-      <c r="H79" s="3">
-        <v>0.001851851851851852</v>
-      </c>
-      <c r="I79" s="3">
+      <c r="H79" s="26">
+        <v>1.8518518518518519E-3</v>
+      </c>
+      <c r="I79" s="24">
         <v>2353</v>
       </c>
-      <c r="J79" s="3">
-        <v>0.6224867724867725</v>
-      </c>
-    </row>
-    <row r="80" spans="2:10">
-      <c r="B80" t="s">
+      <c r="J79" s="24">
+        <v>0.62248677248677253</v>
+      </c>
+    </row>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B80" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="C80" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="D80" s="3">
+      <c r="D80" s="24">
         <v>2922</v>
       </c>
-      <c r="E80" s="3">
+      <c r="E80" s="24">
         <v>172</v>
       </c>
-      <c r="F80" s="3">
-        <v>0.05886379192334018</v>
-      </c>
-      <c r="G80" s="3">
+      <c r="F80" s="24">
+        <v>5.8863791923340181E-2</v>
+      </c>
+      <c r="G80" s="26">
         <v>11</v>
       </c>
-      <c r="H80" s="3">
-        <v>0.003764544832306639</v>
-      </c>
-      <c r="I80" s="3">
+      <c r="H80" s="26">
+        <v>3.7645448323066389E-3</v>
+      </c>
+      <c r="I80" s="24">
         <v>1615</v>
       </c>
-      <c r="J80" s="3">
-        <v>0.552703627652293</v>
-      </c>
-    </row>
-    <row r="81" spans="2:10">
-      <c r="B81" t="s">
+      <c r="J80" s="24">
+        <v>0.55270362765229297</v>
+      </c>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B81" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C81" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="24">
         <v>2361</v>
       </c>
-      <c r="E81" s="3">
+      <c r="E81" s="24">
         <v>144</v>
       </c>
-      <c r="F81" s="3">
-        <v>0.06099110546378653</v>
-      </c>
-      <c r="G81" s="3">
+      <c r="F81" s="24">
+        <v>6.0991105463786527E-2</v>
+      </c>
+      <c r="G81" s="26">
         <v>13</v>
       </c>
-      <c r="H81" s="3">
-        <v>0.005506141465480729</v>
-      </c>
-      <c r="I81" s="3">
+      <c r="H81" s="26">
+        <v>5.5061414654807286E-3</v>
+      </c>
+      <c r="I81" s="24">
         <v>1304</v>
       </c>
-      <c r="J81" s="3">
-        <v>0.552308343922067</v>
-      </c>
-    </row>
-    <row r="82" spans="2:10">
-      <c r="B82" t="s">
+      <c r="J81" s="24">
+        <v>0.55230834392206696</v>
+      </c>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B82" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="C82" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="D82" s="3">
+      <c r="D82" s="24">
         <v>2306</v>
       </c>
-      <c r="E82" s="3">
+      <c r="E82" s="24">
         <v>195</v>
       </c>
-      <c r="F82" s="3">
-        <v>0.08456201214223764</v>
-      </c>
-      <c r="G82" s="3">
+      <c r="F82" s="24">
+        <v>8.4562012142237644E-2</v>
+      </c>
+      <c r="G82" s="26">
         <v>14</v>
       </c>
-      <c r="H82" s="3">
-        <v>0.006071118820468344</v>
-      </c>
-      <c r="I82" s="3">
+      <c r="H82" s="26">
+        <v>6.0711188204683438E-3</v>
+      </c>
+      <c r="I82" s="24">
         <v>1252</v>
       </c>
-      <c r="J82" s="3">
-        <v>0.5429314830875975</v>
-      </c>
-    </row>
-    <row r="83" spans="2:10">
-      <c r="B83" t="s">
+      <c r="J82" s="24">
+        <v>0.54293148308759753</v>
+      </c>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B83" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="C83" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="D83" s="3">
+      <c r="D83" s="24">
         <v>1340</v>
       </c>
-      <c r="E83" s="3">
+      <c r="E83" s="24">
         <v>90</v>
       </c>
-      <c r="F83" s="3">
-        <v>0.06716417910447761</v>
-      </c>
-      <c r="G83" s="3">
+      <c r="F83" s="24">
+        <v>6.7164179104477612E-2</v>
+      </c>
+      <c r="G83" s="26">
         <v>5</v>
       </c>
-      <c r="H83" s="3">
-        <v>0.003731343283582089</v>
-      </c>
-      <c r="I83" s="3">
+      <c r="H83" s="26">
+        <v>3.731343283582089E-3</v>
+      </c>
+      <c r="I83" s="24">
         <v>765</v>
       </c>
-      <c r="J83" s="3">
-        <v>0.5708955223880597</v>
-      </c>
-    </row>
-    <row r="84" spans="2:10">
-      <c r="B84" t="s">
+      <c r="J83" s="24">
+        <v>0.57089552238805974</v>
+      </c>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B84" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="C84" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="D84" s="3">
+      <c r="D84" s="24">
         <v>1244</v>
       </c>
-      <c r="E84" s="3">
+      <c r="E84" s="24">
         <v>92</v>
       </c>
-      <c r="F84" s="3">
-        <v>0.07395498392282958</v>
-      </c>
-      <c r="G84" s="3">
+      <c r="F84" s="24">
+        <v>7.3954983922829579E-2</v>
+      </c>
+      <c r="G84" s="26">
         <v>5</v>
       </c>
-      <c r="H84" s="3">
-        <v>0.004019292604501607</v>
-      </c>
-      <c r="I84" s="3">
+      <c r="H84" s="26">
+        <v>4.0192926045016066E-3</v>
+      </c>
+      <c r="I84" s="24">
         <v>754</v>
       </c>
-      <c r="J84" s="3">
-        <v>0.6061093247588425</v>
-      </c>
-    </row>
-    <row r="85" spans="2:10">
-      <c r="B85" t="s">
+      <c r="J84" s="24">
+        <v>0.60610932475884249</v>
+      </c>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B85" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="C85" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="D85" s="3">
+      <c r="D85" s="24">
         <v>1229</v>
       </c>
-      <c r="E85" s="3">
+      <c r="E85" s="24">
         <v>153</v>
       </c>
-      <c r="F85" s="3">
+      <c r="F85" s="24">
         <v>0.1244914564686737</v>
       </c>
-      <c r="G85" s="3">
+      <c r="G85" s="26">
         <v>9</v>
       </c>
-      <c r="H85" s="3">
-        <v>0.007323026851098454</v>
-      </c>
-      <c r="I85" s="3">
+      <c r="H85" s="26">
+        <v>7.3230268510984537E-3</v>
+      </c>
+      <c r="I85" s="24">
         <v>807</v>
       </c>
-      <c r="J85" s="3">
+      <c r="J85" s="24">
         <v>0.6566314076484947</v>
       </c>
     </row>
-    <row r="86" spans="2:10">
-      <c r="B86" t="s">
+    <row r="86" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B86" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="C86" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="D86" s="3">
+      <c r="D86" s="24">
         <v>1252</v>
       </c>
-      <c r="E86" s="3">
+      <c r="E86" s="24">
         <v>91</v>
       </c>
-      <c r="F86" s="3">
-        <v>0.07268370607028754</v>
-      </c>
-      <c r="G86" s="3">
+      <c r="F86" s="24">
+        <v>7.268370607028754E-2</v>
+      </c>
+      <c r="G86" s="26">
         <v>6</v>
       </c>
-      <c r="H86" s="3">
-        <v>0.004792332268370607</v>
-      </c>
-      <c r="I86" s="3">
+      <c r="H86" s="26">
+        <v>4.7923322683706068E-3</v>
+      </c>
+      <c r="I86" s="24">
         <v>806</v>
       </c>
-      <c r="J86" s="3">
-        <v>0.6437699680511182</v>
-      </c>
-    </row>
-    <row r="87" spans="2:10">
-      <c r="B87" t="s">
+      <c r="J86" s="24">
+        <v>0.64376996805111819</v>
+      </c>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B87" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="C87" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="D87" s="3">
+      <c r="D87" s="24">
         <v>1201</v>
       </c>
-      <c r="E87" s="3">
+      <c r="E87" s="24">
         <v>92</v>
       </c>
-      <c r="F87" s="3">
-        <v>0.07660283097418817</v>
-      </c>
-      <c r="G87" s="3">
+      <c r="F87" s="24">
+        <v>7.6602830974188171E-2</v>
+      </c>
+      <c r="G87" s="26">
         <v>2</v>
       </c>
-      <c r="H87" s="3">
-        <v>0.001665278934221482</v>
-      </c>
-      <c r="I87" s="3">
+      <c r="H87" s="26">
+        <v>1.6652789342214819E-3</v>
+      </c>
+      <c r="I87" s="24">
         <v>793</v>
       </c>
-      <c r="J87" s="3">
-        <v>0.6602830974188176</v>
-      </c>
-    </row>
-    <row r="88" spans="2:10">
-      <c r="B88" t="s">
+      <c r="J87" s="24">
+        <v>0.66028309741881763</v>
+      </c>
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B88" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C88" s="3" t="s">
+      <c r="C88" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="D88" s="3">
+      <c r="D88" s="24">
         <v>992</v>
       </c>
-      <c r="E88" s="3">
+      <c r="E88" s="24">
         <v>102</v>
       </c>
-      <c r="F88" s="3">
+      <c r="F88" s="24">
         <v>0.1028225806451613</v>
       </c>
-      <c r="G88" s="3">
+      <c r="G88" s="26">
         <v>5</v>
       </c>
-      <c r="H88" s="3">
-        <v>0.005040322580645161</v>
-      </c>
-      <c r="I88" s="3">
+      <c r="H88" s="26">
+        <v>5.0403225806451612E-3</v>
+      </c>
+      <c r="I88" s="24">
         <v>638</v>
       </c>
-      <c r="J88" s="3">
-        <v>0.6431451612903226</v>
-      </c>
-    </row>
-    <row r="89" spans="2:10">
-      <c r="B89" t="s">
+      <c r="J88" s="24">
+        <v>0.64314516129032262</v>
+      </c>
+    </row>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B89" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="C89" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="D89" s="3">
+      <c r="D89" s="24">
         <v>1142</v>
       </c>
-      <c r="E89" s="3">
+      <c r="E89" s="24">
         <v>112</v>
       </c>
-      <c r="F89" s="3">
-        <v>0.09807355516637478</v>
-      </c>
-      <c r="G89" s="3">
+      <c r="F89" s="24">
+        <v>9.8073555166374782E-2</v>
+      </c>
+      <c r="G89" s="26">
         <v>14</v>
       </c>
-      <c r="H89" s="3">
-        <v>0.01225919439579685</v>
-      </c>
-      <c r="I89" s="3">
+      <c r="H89" s="26">
+        <v>1.2259194395796849E-2</v>
+      </c>
+      <c r="I89" s="24">
         <v>728</v>
       </c>
-      <c r="J89" s="3">
-        <v>0.6374781085814361</v>
-      </c>
-    </row>
-    <row r="90" spans="2:10">
-      <c r="B90" t="s">
+      <c r="J89" s="24">
+        <v>0.63747810858143605</v>
+      </c>
+    </row>
+    <row r="90" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B90" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C90" s="3" t="s">
+      <c r="C90" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="D90" s="3">
+      <c r="D90" s="24">
         <v>1324</v>
       </c>
-      <c r="E90" s="3">
+      <c r="E90" s="24">
         <v>111</v>
       </c>
-      <c r="F90" s="3">
-        <v>0.08383685800604229</v>
-      </c>
-      <c r="G90" s="3">
+      <c r="F90" s="24">
+        <v>8.3836858006042292E-2</v>
+      </c>
+      <c r="G90" s="26">
         <v>5</v>
       </c>
-      <c r="H90" s="3">
-        <v>0.003776435045317221</v>
-      </c>
-      <c r="I90" s="3">
+      <c r="H90" s="26">
+        <v>3.7764350453172212E-3</v>
+      </c>
+      <c r="I90" s="24">
         <v>839</v>
       </c>
-      <c r="J90" s="3">
-        <v>0.6336858006042296</v>
-      </c>
-    </row>
-    <row r="91" spans="2:10">
-      <c r="B91" t="s">
+      <c r="J90" s="24">
+        <v>0.63368580060422963</v>
+      </c>
+    </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B91" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C91" s="3" t="s">
+      <c r="C91" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D91" s="24">
         <v>1267</v>
       </c>
-      <c r="E91" s="3">
+      <c r="E91" s="24">
         <v>113</v>
       </c>
-      <c r="F91" s="3">
-        <v>0.08918705603788477</v>
-      </c>
-      <c r="G91" s="3">
+      <c r="F91" s="24">
+        <v>8.9187056037884765E-2</v>
+      </c>
+      <c r="G91" s="26">
         <v>7</v>
       </c>
-      <c r="H91" s="3">
-        <v>0.005524861878453038</v>
-      </c>
-      <c r="I91" s="3">
+      <c r="H91" s="26">
+        <v>5.5248618784530376E-3</v>
+      </c>
+      <c r="I91" s="24">
         <v>800</v>
       </c>
-      <c r="J91" s="3">
-        <v>0.6314127861089187</v>
-      </c>
-    </row>
-    <row r="92" spans="2:10">
-      <c r="B92" t="s">
+      <c r="J91" s="24">
+        <v>0.63141278610891871</v>
+      </c>
+    </row>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B92" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C92" s="3" t="s">
+      <c r="C92" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="D92" s="3">
+      <c r="D92" s="22">
         <v>5085</v>
       </c>
-      <c r="E92" s="3">
+      <c r="E92" s="22">
         <v>33</v>
       </c>
-      <c r="F92" s="3">
-        <v>0.006489675516224189</v>
-      </c>
-      <c r="G92" s="3">
+      <c r="F92" s="22">
+        <v>6.4896755162241887E-3</v>
+      </c>
+      <c r="G92" s="27">
         <v>0</v>
       </c>
-      <c r="H92" s="3">
+      <c r="H92" s="27">
         <v>0</v>
       </c>
-      <c r="I92" s="3">
+      <c r="I92" s="22">
         <v>3</v>
       </c>
-      <c r="J92" s="3">
-        <v>0.09090909090909091</v>
-      </c>
-    </row>
-    <row r="93" spans="2:10">
-      <c r="B93" t="s">
+      <c r="J92" s="22">
+        <v>9.0909090909090912E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B93" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C93" s="3" t="s">
+      <c r="C93" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="D93" s="3">
+      <c r="D93" s="22">
         <v>9035</v>
       </c>
-      <c r="E93" s="3">
+      <c r="E93" s="22">
         <v>56</v>
       </c>
-      <c r="F93" s="3">
-        <v>0.006198118428334256</v>
-      </c>
-      <c r="G93" s="3">
+      <c r="F93" s="22">
+        <v>6.1981184283342559E-3</v>
+      </c>
+      <c r="G93" s="27">
         <v>0</v>
       </c>
-      <c r="H93" s="3">
+      <c r="H93" s="27">
         <v>0</v>
       </c>
-      <c r="I93" s="3">
+      <c r="I93" s="22">
         <v>6</v>
       </c>
-      <c r="J93" s="3">
+      <c r="J93" s="22">
         <v>0.1071428571428571</v>
       </c>
     </row>
-    <row r="94" spans="2:10">
-      <c r="B94" t="s">
+    <row r="94" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B94" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C94" s="3" t="s">
+      <c r="C94" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="D94" s="3">
+      <c r="D94" s="22">
         <v>8761</v>
       </c>
-      <c r="E94" s="3">
+      <c r="E94" s="22">
         <v>69</v>
       </c>
-      <c r="F94" s="3">
-        <v>0.007875813263326105</v>
-      </c>
-      <c r="G94" s="3">
+      <c r="F94" s="22">
+        <v>7.8758132633261046E-3</v>
+      </c>
+      <c r="G94" s="27">
         <v>0</v>
       </c>
-      <c r="H94" s="3">
+      <c r="H94" s="27">
         <v>0</v>
       </c>
-      <c r="I94" s="3">
+      <c r="I94" s="22">
         <v>6</v>
       </c>
-      <c r="J94" s="3">
-        <v>0.08695652173913043</v>
-      </c>
-    </row>
-    <row r="95" spans="2:10">
-      <c r="B95" t="s">
+      <c r="J94" s="22">
+        <v>8.6956521739130432E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B95" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C95" s="3" t="s">
+      <c r="C95" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="D95" s="3">
+      <c r="D95" s="22">
         <v>9720</v>
       </c>
-      <c r="E95" s="3">
+      <c r="E95" s="22">
         <v>57</v>
       </c>
-      <c r="F95" s="3">
-        <v>0.005864197530864198</v>
-      </c>
-      <c r="G95" s="3">
+      <c r="F95" s="22">
+        <v>5.8641975308641979E-3</v>
+      </c>
+      <c r="G95" s="27">
         <v>0</v>
       </c>
-      <c r="H95" s="3">
+      <c r="H95" s="27">
         <v>0</v>
       </c>
-      <c r="I95" s="3">
+      <c r="I95" s="22">
         <v>6</v>
       </c>
-      <c r="J95" s="3">
-        <v>0.1052631578947368</v>
-      </c>
-    </row>
-    <row r="96" spans="2:10">
-      <c r="B96" t="s">
+      <c r="J95" s="22">
+        <v>0.10526315789473679</v>
+      </c>
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B96" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C96" s="3" t="s">
+      <c r="C96" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="D96" s="3">
+      <c r="D96" s="22">
         <v>10552</v>
       </c>
-      <c r="E96" s="3">
+      <c r="E96" s="22">
         <v>61</v>
       </c>
-      <c r="F96" s="3">
-        <v>0.005780894617134193</v>
-      </c>
-      <c r="G96" s="3">
+      <c r="F96" s="22">
+        <v>5.7808946171341927E-3</v>
+      </c>
+      <c r="G96" s="27">
         <v>0</v>
       </c>
-      <c r="H96" s="3">
+      <c r="H96" s="27">
         <v>0</v>
       </c>
-      <c r="I96" s="3">
+      <c r="I96" s="22">
         <v>8</v>
       </c>
-      <c r="J96" s="3">
-        <v>0.1311475409836066</v>
-      </c>
-    </row>
-    <row r="97" spans="2:10">
-      <c r="B97" t="s">
+      <c r="J96" s="22">
+        <v>0.13114754098360659</v>
+      </c>
+    </row>
+    <row r="97" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B97" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C97" s="3" t="s">
+      <c r="C97" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="D97" s="3">
+      <c r="D97" s="22">
         <v>10399</v>
       </c>
-      <c r="E97" s="3">
+      <c r="E97" s="22">
         <v>66</v>
       </c>
-      <c r="F97" s="3">
-        <v>0.00634676411193384</v>
-      </c>
-      <c r="G97" s="3">
+      <c r="F97" s="22">
+        <v>6.3467641119338402E-3</v>
+      </c>
+      <c r="G97" s="27">
         <v>0</v>
       </c>
-      <c r="H97" s="3">
+      <c r="H97" s="27">
         <v>0</v>
       </c>
-      <c r="I97" s="3">
+      <c r="I97" s="22">
         <v>3</v>
       </c>
-      <c r="J97" s="3">
-        <v>0.04545454545454546</v>
-      </c>
-    </row>
-    <row r="98" spans="2:10">
-      <c r="B98" t="s">
+      <c r="J97" s="22">
+        <v>4.5454545454545463E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B98" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C98" s="3" t="s">
+      <c r="C98" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="D98" s="3">
+      <c r="D98" s="22">
         <v>9141</v>
       </c>
-      <c r="E98" s="3">
+      <c r="E98" s="22">
         <v>74</v>
       </c>
-      <c r="F98" s="3">
-        <v>0.008095394376982824</v>
-      </c>
-      <c r="G98" s="3">
+      <c r="F98" s="22">
+        <v>8.095394376982824E-3</v>
+      </c>
+      <c r="G98" s="27">
         <v>0</v>
       </c>
-      <c r="H98" s="3">
+      <c r="H98" s="27">
         <v>0</v>
       </c>
-      <c r="I98" s="3">
+      <c r="I98" s="22">
         <v>3</v>
       </c>
-      <c r="J98" s="3">
-        <v>0.04054054054054054</v>
-      </c>
-    </row>
-    <row r="99" spans="2:10">
-      <c r="B99" t="s">
+      <c r="J98" s="22">
+        <v>4.0540540540540543E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B99" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C99" s="3" t="s">
+      <c r="C99" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="D99" s="3">
+      <c r="D99" s="22">
         <v>6297</v>
       </c>
-      <c r="E99" s="3">
+      <c r="E99" s="22">
         <v>34</v>
       </c>
-      <c r="F99" s="3">
-        <v>0.005399396538033984</v>
-      </c>
-      <c r="G99" s="3">
+      <c r="F99" s="22">
+        <v>5.3993965380339836E-3</v>
+      </c>
+      <c r="G99" s="27">
         <v>0</v>
       </c>
-      <c r="H99" s="3">
+      <c r="H99" s="27">
         <v>0</v>
       </c>
-      <c r="I99" s="3">
+      <c r="I99" s="22">
         <v>1</v>
       </c>
-      <c r="J99" s="3">
-        <v>0.02941176470588235</v>
-      </c>
-    </row>
-    <row r="100" spans="2:10">
-      <c r="B100" t="s">
+      <c r="J99" s="22">
+        <v>2.9411764705882349E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B100" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C100" s="3" t="s">
+      <c r="C100" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="D100" s="3">
+      <c r="D100" s="22">
         <v>3914</v>
       </c>
-      <c r="E100" s="3">
+      <c r="E100" s="22">
         <v>23</v>
       </c>
-      <c r="F100" s="3">
-        <v>0.005876341338783853</v>
-      </c>
-      <c r="G100" s="3">
+      <c r="F100" s="22">
+        <v>5.8763413387838527E-3</v>
+      </c>
+      <c r="G100" s="27">
         <v>0</v>
       </c>
-      <c r="H100" s="3">
+      <c r="H100" s="27">
         <v>0</v>
       </c>
-      <c r="I100" s="3">
+      <c r="I100" s="22">
         <v>2</v>
       </c>
-      <c r="J100" s="3">
-        <v>0.08695652173913043</v>
-      </c>
-    </row>
-    <row r="101" spans="2:10">
-      <c r="B101" t="s">
+      <c r="J100" s="22">
+        <v>8.6956521739130432E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B101" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C101" s="3" t="s">
+      <c r="C101" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="D101" s="3">
+      <c r="D101" s="22">
         <v>3369</v>
       </c>
-      <c r="E101" s="3">
+      <c r="E101" s="22">
         <v>33</v>
       </c>
-      <c r="F101" s="3">
-        <v>0.009795191451469279</v>
-      </c>
-      <c r="G101" s="3">
+      <c r="F101" s="22">
+        <v>9.7951914514692786E-3</v>
+      </c>
+      <c r="G101" s="27">
         <v>0</v>
       </c>
-      <c r="H101" s="3">
+      <c r="H101" s="27">
         <v>0</v>
       </c>
-      <c r="I101" s="3">
+      <c r="I101" s="22">
         <v>2</v>
       </c>
-      <c r="J101" s="3">
-        <v>0.06060606060606061</v>
-      </c>
-    </row>
-    <row r="102" spans="2:10">
-      <c r="B102" t="s">
+      <c r="J101" s="22">
+        <v>6.0606060606060608E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B102" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C102" s="3" t="s">
+      <c r="C102" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D102" s="22">
         <v>3823</v>
       </c>
-      <c r="E102" s="3">
+      <c r="E102" s="22">
         <v>31</v>
       </c>
-      <c r="F102" s="3">
-        <v>0.008108815066701544</v>
-      </c>
-      <c r="G102" s="3">
+      <c r="F102" s="22">
+        <v>8.1088150667015437E-3</v>
+      </c>
+      <c r="G102" s="27">
         <v>0</v>
       </c>
-      <c r="H102" s="3">
+      <c r="H102" s="27">
         <v>0</v>
       </c>
-      <c r="I102" s="3">
+      <c r="I102" s="22">
         <v>3</v>
       </c>
-      <c r="J102" s="3">
-        <v>0.09677419354838709</v>
-      </c>
-    </row>
-    <row r="103" spans="2:10">
-      <c r="B103" t="s">
+      <c r="J102" s="22">
+        <v>9.6774193548387094E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B103" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C103" s="3" t="s">
+      <c r="C103" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="D103" s="3">
+      <c r="D103" s="22">
         <v>4236</v>
       </c>
-      <c r="E103" s="3">
+      <c r="E103" s="22">
         <v>36</v>
       </c>
-      <c r="F103" s="3">
-        <v>0.0084985835694051</v>
-      </c>
-      <c r="G103" s="3">
+      <c r="F103" s="22">
+        <v>8.4985835694051E-3</v>
+      </c>
+      <c r="G103" s="27">
         <v>0</v>
       </c>
-      <c r="H103" s="3">
+      <c r="H103" s="27">
         <v>0</v>
       </c>
-      <c r="I103" s="3">
+      <c r="I103" s="22">
         <v>5</v>
       </c>
-      <c r="J103" s="3">
+      <c r="J103" s="22">
         <v>0.1388888888888889</v>
       </c>
     </row>
-    <row r="104" spans="2:10">
-      <c r="B104" t="s">
+    <row r="104" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B104" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C104" s="3" t="s">
+      <c r="C104" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="D104" s="3">
+      <c r="D104" s="22">
         <v>2193</v>
       </c>
-      <c r="E104" s="3">
+      <c r="E104" s="22">
         <v>9</v>
       </c>
-      <c r="F104" s="3">
-        <v>0.004103967168262654</v>
-      </c>
-      <c r="G104" s="3">
+      <c r="F104" s="22">
+        <v>4.1039671682626538E-3</v>
+      </c>
+      <c r="G104" s="27">
         <v>0</v>
       </c>
-      <c r="H104" s="3">
+      <c r="H104" s="27">
         <v>0</v>
       </c>
-      <c r="I104" s="3">
+      <c r="I104" s="22">
         <v>0</v>
       </c>
-      <c r="J104" s="3">
+      <c r="J104" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="2:10">
+    <row r="105" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B105" s="12" t="s">
         <v>31</v>
       </c>
       <c r="D105" s="13">
-        <f>sum(D58:D104)</f>
-        <v>0</v>
+        <f>SUM(D58:D104)</f>
+        <v>876615</v>
       </c>
       <c r="E105" s="13">
-        <f>sum(E58:E104)</f>
-        <v>0</v>
+        <f>SUM(E58:E104)</f>
+        <v>13670</v>
       </c>
       <c r="F105" s="14">
         <f>E105/D105</f>
-        <v>0</v>
-      </c>
-      <c r="G105" s="13">
-        <f>sum(G58:G104)</f>
-        <v>0</v>
-      </c>
+        <v>1.5594074935975314E-2</v>
+      </c>
+      <c r="G105" s="28">
+        <f>SUM(G58:G104)</f>
+        <v>351</v>
+      </c>
+      <c r="H105" s="29"/>
       <c r="I105" s="13">
-        <f>sum(I58:I104)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="2:10">
+        <f>SUM(I58:I104)</f>
+        <v>19277</v>
+      </c>
+    </row>
+    <row r="107" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B107" s="10" t="s">
         <v>37</v>
       </c>
       <c r="D107" s="7">
         <f>SUMIFS(D58:D105,B58:B105,"Subtotal")</f>
-        <v>0</v>
+        <v>876615</v>
       </c>
       <c r="E107" s="7">
         <f>SUMIFS(E58:E105,B58:B105,"Subtotal")</f>
-        <v>0</v>
+        <v>13670</v>
       </c>
       <c r="F107" s="15">
         <f>E107/D107</f>
-        <v>0</v>
+        <v>1.5594074935975314E-2</v>
       </c>
       <c r="G107" s="7">
         <f>SUMIFS(G58:G105,B58:B105,"Subtotal")</f>
-        <v>0</v>
+        <v>351</v>
       </c>
       <c r="I107" s="7">
         <f>SUMIFS(I58:I105,B58:B105,"Subtotal")</f>
-        <v>0</v>
+        <v>19277</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:R5">
-    <cfRule type="containsBlanks" dxfId="0" priority="7">
+    <cfRule type="containsBlanks" dxfId="95" priority="7">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="8">
+    <cfRule type="notContainsBlanks" dxfId="94" priority="8">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15:D15">
-    <cfRule type="notContainsBlanks" dxfId="7" priority="16">
+    <cfRule type="notContainsBlanks" dxfId="93" priority="16">
       <formula>LEN(TRIM(B15))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:M19">
-    <cfRule type="containsBlanks" dxfId="6" priority="10">
+    <cfRule type="containsBlanks" dxfId="92" priority="10">
       <formula>LEN(TRIM(B19))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29:D29">
-    <cfRule type="notContainsBlanks" dxfId="7" priority="24">
+    <cfRule type="notContainsBlanks" dxfId="91" priority="24">
       <formula>LEN(TRIM(B29))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33:I33">
-    <cfRule type="containsBlanks" dxfId="6" priority="11">
+    <cfRule type="containsBlanks" dxfId="90" priority="11">
       <formula>LEN(TRIM(B33))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46:X46">
-    <cfRule type="containsBlanks" dxfId="6" priority="12">
+    <cfRule type="containsBlanks" dxfId="89" priority="12">
       <formula>LEN(TRIM(B46))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47:X47">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="14">
+    <cfRule type="notContainsBlanks" dxfId="88" priority="14">
       <formula>LEN(TRIM(B47))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="0" priority="15">
+    <cfRule type="containsBlanks" dxfId="87" priority="15">
       <formula>LEN(TRIM(B47))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B55:J55">
-    <cfRule type="containsBlanks" dxfId="6" priority="79">
+    <cfRule type="containsBlanks" dxfId="86" priority="79">
       <formula>LEN(TRIM(B55))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:M8">
-    <cfRule type="containsBlanks" dxfId="6" priority="9">
+    <cfRule type="containsBlanks" dxfId="85" priority="9">
       <formula>LEN(TRIM(B8))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C107">
-    <cfRule type="containsBlanks" dxfId="10" priority="80">
+    <cfRule type="containsBlanks" dxfId="84" priority="80">
       <formula>LEN(TRIM(C107))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:C13">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="32">
+    <cfRule type="notContainsBlanks" dxfId="83" priority="32">
       <formula>LEN(TRIM(C11))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22:C27">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="42">
+    <cfRule type="notContainsBlanks" dxfId="82" priority="42">
       <formula>LEN(TRIM(C22))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C45:X45">
-    <cfRule type="containsBlanks" dxfId="6" priority="13">
+    <cfRule type="containsBlanks" dxfId="81" priority="13">
       <formula>LEN(TRIM(C45))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49:C51">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="58">
+    <cfRule type="notContainsBlanks" dxfId="80" priority="58">
       <formula>LEN(TRIM(C49))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:D13">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="33">
+    <cfRule type="notContainsBlanks" dxfId="79" priority="33">
       <formula>LEN(TRIM(D11))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22:D27">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="43">
+    <cfRule type="notContainsBlanks" dxfId="78" priority="43">
       <formula>LEN(TRIM(D22))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36:D42">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="52">
+    <cfRule type="notContainsBlanks" dxfId="77" priority="52">
       <formula>LEN(TRIM(D36))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49:D51">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="59">
+    <cfRule type="notContainsBlanks" dxfId="76" priority="59">
       <formula>LEN(TRIM(D49))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D58:E105">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="75" priority="1">
       <formula>LEN(TRIM(D58))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:E13">
-    <cfRule type="notContainsBlanks" dxfId="9" priority="34">
+    <cfRule type="notContainsBlanks" dxfId="74" priority="34">
       <formula>LEN(TRIM(E11))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="notContainsBlanks" dxfId="8" priority="20">
+    <cfRule type="notContainsBlanks" dxfId="73" priority="20">
       <formula>LEN(TRIM(E15))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22:E27">
-    <cfRule type="notContainsBlanks" dxfId="9" priority="44">
+    <cfRule type="notContainsBlanks" dxfId="72" priority="44">
       <formula>LEN(TRIM(E22))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="notContainsBlanks" dxfId="8" priority="28">
+    <cfRule type="notContainsBlanks" dxfId="71" priority="28">
       <formula>LEN(TRIM(E29))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36:E42">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="53">
+    <cfRule type="notContainsBlanks" dxfId="70" priority="53">
       <formula>LEN(TRIM(E36))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49:E51">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="60">
+    <cfRule type="notContainsBlanks" dxfId="69" priority="60">
       <formula>LEN(TRIM(E49))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F13">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="35">
+    <cfRule type="notContainsBlanks" dxfId="68" priority="35">
       <formula>LEN(TRIM(F11))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="notContainsBlanks" dxfId="7" priority="17">
+    <cfRule type="notContainsBlanks" dxfId="67" priority="17">
       <formula>LEN(TRIM(F15))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22:F27">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="45">
+    <cfRule type="notContainsBlanks" dxfId="66" priority="45">
       <formula>LEN(TRIM(F22))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="notContainsBlanks" dxfId="7" priority="25">
+    <cfRule type="notContainsBlanks" dxfId="65" priority="25">
       <formula>LEN(TRIM(F29))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F36:F42">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="54">
+    <cfRule type="notContainsBlanks" dxfId="64" priority="54">
       <formula>LEN(TRIM(F36))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F49:F51">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="61">
+    <cfRule type="notContainsBlanks" dxfId="63" priority="61">
       <formula>LEN(TRIM(F49))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F58:F105">
-    <cfRule type="notContainsBlanks" dxfId="5" priority="2">
+    <cfRule type="notContainsBlanks" dxfId="62" priority="2">
       <formula>LEN(TRIM(F58))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11:G13">
-    <cfRule type="notContainsBlanks" dxfId="9" priority="36">
+    <cfRule type="notContainsBlanks" dxfId="61" priority="36">
       <formula>LEN(TRIM(G11))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15:H15">
-    <cfRule type="notContainsBlanks" dxfId="8" priority="21">
+    <cfRule type="notContainsBlanks" dxfId="60" priority="21">
       <formula>LEN(TRIM(G15))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22:G27">
-    <cfRule type="notContainsBlanks" dxfId="9" priority="46">
+    <cfRule type="notContainsBlanks" dxfId="59" priority="46">
       <formula>LEN(TRIM(G22))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29:H29">
-    <cfRule type="notContainsBlanks" dxfId="8" priority="29">
+    <cfRule type="notContainsBlanks" dxfId="58" priority="29">
       <formula>LEN(TRIM(G29))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G36:G42">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="55">
+    <cfRule type="notContainsBlanks" dxfId="57" priority="55">
       <formula>LEN(TRIM(G36))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G49:G51">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="62">
+    <cfRule type="notContainsBlanks" dxfId="56" priority="62">
       <formula>LEN(TRIM(G49))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G58:G105">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="3">
+    <cfRule type="notContainsBlanks" dxfId="55" priority="3">
       <formula>LEN(TRIM(G58))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H107">
-    <cfRule type="containsBlanks" dxfId="10" priority="81">
+    <cfRule type="containsBlanks" dxfId="54" priority="81">
       <formula>LEN(TRIM(H107))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11:H13">
-    <cfRule type="notContainsBlanks" dxfId="9" priority="37">
+    <cfRule type="notContainsBlanks" dxfId="53" priority="37">
       <formula>LEN(TRIM(H11))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22:H27">
-    <cfRule type="notContainsBlanks" dxfId="9" priority="47">
+    <cfRule type="notContainsBlanks" dxfId="52" priority="47">
       <formula>LEN(TRIM(H22))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36:H42">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="56">
+    <cfRule type="notContainsBlanks" dxfId="51" priority="56">
       <formula>LEN(TRIM(H36))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49:H51">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="63">
+    <cfRule type="notContainsBlanks" dxfId="50" priority="63">
       <formula>LEN(TRIM(H49))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H58:H105">
-    <cfRule type="notContainsBlanks" dxfId="5" priority="4">
+    <cfRule type="notContainsBlanks" dxfId="49" priority="4">
       <formula>LEN(TRIM(H58))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11:I13">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="38">
+    <cfRule type="notContainsBlanks" dxfId="48" priority="38">
       <formula>LEN(TRIM(I11))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15">
-    <cfRule type="notContainsBlanks" dxfId="7" priority="18">
+    <cfRule type="notContainsBlanks" dxfId="47" priority="18">
       <formula>LEN(TRIM(I15))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22:I27">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="48">
+    <cfRule type="notContainsBlanks" dxfId="46" priority="48">
       <formula>LEN(TRIM(I22))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29">
-    <cfRule type="notContainsBlanks" dxfId="7" priority="26">
+    <cfRule type="notContainsBlanks" dxfId="45" priority="26">
       <formula>LEN(TRIM(I29))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36:I42">
-    <cfRule type="notContainsBlanks" dxfId="9" priority="57">
+    <cfRule type="notContainsBlanks" dxfId="44" priority="57">
       <formula>LEN(TRIM(I36))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I49:I51">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="64">
+    <cfRule type="notContainsBlanks" dxfId="43" priority="64">
       <formula>LEN(TRIM(I49))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I58:I105">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="5">
+    <cfRule type="notContainsBlanks" dxfId="42" priority="5">
       <formula>LEN(TRIM(I58))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J107">
-    <cfRule type="containsBlanks" dxfId="10" priority="82">
+    <cfRule type="containsBlanks" dxfId="41" priority="82">
       <formula>LEN(TRIM(J107))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11:J13">
-    <cfRule type="notContainsBlanks" dxfId="9" priority="39">
+    <cfRule type="notContainsBlanks" dxfId="40" priority="39">
       <formula>LEN(TRIM(J11))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15:K15">
-    <cfRule type="containsBlanks" dxfId="8" priority="23">
+    <cfRule type="containsBlanks" dxfId="39" priority="23">
       <formula>LEN(TRIM(J15))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22:J27">
-    <cfRule type="notContainsBlanks" dxfId="9" priority="49">
+    <cfRule type="notContainsBlanks" dxfId="38" priority="49">
       <formula>LEN(TRIM(J22))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J29:K29">
-    <cfRule type="containsBlanks" dxfId="8" priority="31">
+    <cfRule type="containsBlanks" dxfId="37" priority="31">
       <formula>LEN(TRIM(J29))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J49:J51">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="65">
+    <cfRule type="notContainsBlanks" dxfId="36" priority="65">
       <formula>LEN(TRIM(J49))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J58:J105">
-    <cfRule type="notContainsBlanks" dxfId="5" priority="6">
+    <cfRule type="notContainsBlanks" dxfId="35" priority="6">
       <formula>LEN(TRIM(J58))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11:K13">
-    <cfRule type="notContainsBlanks" dxfId="9" priority="40">
+    <cfRule type="notContainsBlanks" dxfId="34" priority="40">
       <formula>LEN(TRIM(K11))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K22:K27">
-    <cfRule type="notContainsBlanks" dxfId="9" priority="50">
+    <cfRule type="notContainsBlanks" dxfId="33" priority="50">
       <formula>LEN(TRIM(K22))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K49:K51">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="66">
+    <cfRule type="notContainsBlanks" dxfId="32" priority="66">
       <formula>LEN(TRIM(K49))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11:L13">
-    <cfRule type="notContainsBlanks" dxfId="9" priority="41">
+    <cfRule type="notContainsBlanks" dxfId="31" priority="41">
       <formula>LEN(TRIM(L11))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L15">
-    <cfRule type="notContainsBlanks" dxfId="8" priority="22">
+    <cfRule type="notContainsBlanks" dxfId="30" priority="22">
       <formula>LEN(TRIM(L15))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L22:L27">
-    <cfRule type="notContainsBlanks" dxfId="9" priority="51">
+    <cfRule type="notContainsBlanks" dxfId="29" priority="51">
       <formula>LEN(TRIM(L22))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L29">
-    <cfRule type="notContainsBlanks" dxfId="8" priority="30">
+    <cfRule type="notContainsBlanks" dxfId="28" priority="30">
       <formula>LEN(TRIM(L29))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L49:L51">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="67">
+    <cfRule type="notContainsBlanks" dxfId="27" priority="67">
       <formula>LEN(TRIM(L49))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M15">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="19">
+    <cfRule type="notContainsBlanks" dxfId="26" priority="19">
       <formula>LEN(TRIM(M15))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M29">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="27">
+    <cfRule type="notContainsBlanks" dxfId="25" priority="27">
       <formula>LEN(TRIM(M29))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M49:M51">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="68">
+    <cfRule type="notContainsBlanks" dxfId="24" priority="68">
       <formula>LEN(TRIM(M49))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N49:N51">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="69">
+    <cfRule type="notContainsBlanks" dxfId="23" priority="69">
       <formula>LEN(TRIM(N49))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O49:O51">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="70">
+    <cfRule type="notContainsBlanks" dxfId="22" priority="70">
       <formula>LEN(TRIM(O49))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P49:P51">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="71">
+    <cfRule type="notContainsBlanks" dxfId="21" priority="71">
       <formula>LEN(TRIM(P49))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q49:Q51">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="72">
+    <cfRule type="notContainsBlanks" dxfId="20" priority="72">
       <formula>LEN(TRIM(Q49))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R49:R51">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="73">
+    <cfRule type="notContainsBlanks" dxfId="19" priority="73">
       <formula>LEN(TRIM(R49))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S49:S51">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="74">
+    <cfRule type="notContainsBlanks" dxfId="18" priority="74">
       <formula>LEN(TRIM(S49))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T49:T51">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="75">
+    <cfRule type="notContainsBlanks" dxfId="17" priority="75">
       <formula>LEN(TRIM(T49))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U49:U51">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="76">
+    <cfRule type="notContainsBlanks" dxfId="16" priority="76">
       <formula>LEN(TRIM(U49))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V49:V51">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="77">
+    <cfRule type="notContainsBlanks" dxfId="15" priority="77">
       <formula>LEN(TRIM(V49))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W49:W51">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="78">
+    <cfRule type="notContainsBlanks" dxfId="14" priority="78">
       <formula>LEN(TRIM(W49))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4668,35 +5515,35 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:C81"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.7109375" customWidth="1"/>
-    <col min="2" max="2" width="51.7109375" customWidth="1"/>
-    <col min="3" max="3" width="255.7109375" customWidth="1"/>
+    <col min="1" max="1" width="1.6640625" customWidth="1"/>
+    <col min="2" max="2" width="51.6640625" customWidth="1"/>
+    <col min="3" max="3" width="255.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="5" customHeight="1"/>
-    <row r="5" spans="2:3" s="16" customFormat="1" ht="21" customHeight="1">
+    <row r="1" spans="2:3" ht="4.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="2:3" s="16" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="16" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="2:3" s="17" customFormat="1" ht="18" customHeight="1">
+    <row r="7" spans="2:3" s="17" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="17" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="8" spans="2:3" s="18" customFormat="1" ht="16" customHeight="1">
+    <row r="8" spans="2:3" s="18" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="18" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="9" spans="2:3" s="17" customFormat="1" ht="18" customHeight="1">
+    <row r="9" spans="2:3" s="17" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="17" t="s">
         <v>119</v>
       </c>
@@ -4704,7 +5551,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="10" spans="2:3">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>120</v>
       </c>
@@ -4712,7 +5559,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="11" spans="2:3">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>121</v>
       </c>
@@ -4720,7 +5567,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="12" spans="2:3">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>122</v>
       </c>
@@ -4728,7 +5575,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="13" spans="2:3">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>123</v>
       </c>
@@ -4736,7 +5583,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="14" spans="2:3">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>124</v>
       </c>
@@ -4744,7 +5591,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="15" spans="2:3">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>125</v>
       </c>
@@ -4752,7 +5599,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="16" spans="2:3">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>126</v>
       </c>
@@ -4760,7 +5607,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>127</v>
       </c>
@@ -4768,7 +5615,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="18" spans="2:3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>128</v>
       </c>
@@ -4776,7 +5623,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="19" spans="2:3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>103</v>
       </c>
@@ -4784,7 +5631,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="20" spans="2:3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>104</v>
       </c>
@@ -4792,7 +5639,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="21" spans="2:3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>105</v>
       </c>
@@ -4800,7 +5647,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="22" spans="2:3">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>106</v>
       </c>
@@ -4808,7 +5655,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>93</v>
       </c>
@@ -4816,7 +5663,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>129</v>
       </c>
@@ -4824,7 +5671,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>130</v>
       </c>
@@ -4832,7 +5679,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>47</v>
       </c>
@@ -4840,7 +5687,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="27" spans="2:3">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>48</v>
       </c>
@@ -4848,7 +5695,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="28" spans="2:3">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>49</v>
       </c>
@@ -4856,7 +5703,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="29" spans="2:3">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>51</v>
       </c>
@@ -4864,7 +5711,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="30" spans="2:3">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>50</v>
       </c>
@@ -4872,7 +5719,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="31" spans="2:3">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>52</v>
       </c>
@@ -4880,7 +5727,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="32" spans="2:3">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>53</v>
       </c>
@@ -4888,17 +5735,17 @@
         <v>170</v>
       </c>
     </row>
-    <row r="35" spans="2:3" s="17" customFormat="1" ht="18" customHeight="1">
+    <row r="35" spans="2:3" s="17" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="17" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="36" spans="2:3" s="18" customFormat="1" ht="16" customHeight="1">
+    <row r="36" spans="2:3" s="18" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="18" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="37" spans="2:3" s="17" customFormat="1" ht="18" customHeight="1">
+    <row r="37" spans="2:3" s="17" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="17" t="s">
         <v>119</v>
       </c>
@@ -4906,7 +5753,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="38" spans="2:3">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>133</v>
       </c>
@@ -4914,7 +5761,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="39" spans="2:3">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>89</v>
       </c>
@@ -4922,7 +5769,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="40" spans="2:3">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>127</v>
       </c>
@@ -4930,7 +5777,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="41" spans="2:3">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>128</v>
       </c>
@@ -4938,7 +5785,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="42" spans="2:3">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>103</v>
       </c>
@@ -4946,7 +5793,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="43" spans="2:3">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>104</v>
       </c>
@@ -4954,7 +5801,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="44" spans="2:3">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
         <v>105</v>
       </c>
@@ -4962,7 +5809,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="45" spans="2:3">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>106</v>
       </c>
@@ -4970,7 +5817,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="46" spans="2:3">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
         <v>93</v>
       </c>
@@ -4978,7 +5825,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="47" spans="2:3">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>129</v>
       </c>
@@ -4986,7 +5833,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="48" spans="2:3">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>111</v>
       </c>
@@ -4994,7 +5841,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="49" spans="2:3">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>130</v>
       </c>
@@ -5002,7 +5849,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="50" spans="2:3">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>96</v>
       </c>
@@ -5010,7 +5857,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="51" spans="2:3">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
         <v>134</v>
       </c>
@@ -5018,7 +5865,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="52" spans="2:3">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
         <v>135</v>
       </c>
@@ -5026,17 +5873,17 @@
         <v>185</v>
       </c>
     </row>
-    <row r="55" spans="2:3" s="17" customFormat="1" ht="18" customHeight="1">
+    <row r="55" spans="2:3" s="17" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B55" s="17" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="56" spans="2:3" s="18" customFormat="1" ht="16" customHeight="1">
+    <row r="56" spans="2:3" s="18" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="18" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="57" spans="2:3" s="17" customFormat="1" ht="18" customHeight="1">
+    <row r="57" spans="2:3" s="17" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B57" s="17" t="s">
         <v>119</v>
       </c>
@@ -5044,7 +5891,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="58" spans="2:3">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
         <v>138</v>
       </c>
@@ -5052,7 +5899,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="59" spans="2:3">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
         <v>139</v>
       </c>
@@ -5060,7 +5907,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="60" spans="2:3">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
         <v>127</v>
       </c>
@@ -5068,7 +5915,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="61" spans="2:3">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
         <v>128</v>
       </c>
@@ -5076,7 +5923,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="62" spans="2:3">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
         <v>103</v>
       </c>
@@ -5084,7 +5931,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="63" spans="2:3">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
         <v>104</v>
       </c>
@@ -5092,7 +5939,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="64" spans="2:3">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
         <v>105</v>
       </c>
@@ -5100,7 +5947,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="65" spans="2:3">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
         <v>106</v>
       </c>
@@ -5108,7 +5955,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="66" spans="2:3">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
         <v>93</v>
       </c>
@@ -5116,7 +5963,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="67" spans="2:3">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
         <v>129</v>
       </c>
@@ -5124,7 +5971,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="68" spans="2:3">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
         <v>111</v>
       </c>
@@ -5132,7 +5979,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="69" spans="2:3">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
         <v>130</v>
       </c>
@@ -5140,7 +5987,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="70" spans="2:3">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
         <v>96</v>
       </c>
@@ -5148,7 +5995,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="71" spans="2:3">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
         <v>134</v>
       </c>
@@ -5156,7 +6003,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="72" spans="2:3">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
         <v>135</v>
       </c>
@@ -5164,12 +6011,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="75" spans="2:3" s="17" customFormat="1" ht="18" customHeight="1">
+    <row r="75" spans="2:3" s="17" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B75" s="17" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="76" spans="2:3" s="17" customFormat="1" ht="18" customHeight="1">
+    <row r="76" spans="2:3" s="17" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B76" s="17" t="s">
         <v>141</v>
       </c>
@@ -5177,7 +6024,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="77" spans="2:3">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
         <v>142</v>
       </c>
@@ -5185,7 +6032,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="78" spans="2:3">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
         <v>143</v>
       </c>
@@ -5193,7 +6040,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="79" spans="2:3">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
         <v>144</v>
       </c>
@@ -5201,7 +6048,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="80" spans="2:3">
+    <row r="80" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B80" t="s">
         <v>145</v>
       </c>
@@ -5209,7 +6056,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="81" spans="2:3">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
         <v>146</v>
       </c>
@@ -5219,62 +6066,62 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:C6">
-    <cfRule type="containsBlanks" dxfId="11" priority="1">
+    <cfRule type="containsBlanks" dxfId="13" priority="1">
       <formula>LEN(TRIM(B2))=0</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="11" priority="2">
+    <cfRule type="notContainsBlanks" dxfId="12" priority="2">
       <formula>LEN(TRIM(B2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35:C35">
-    <cfRule type="containsBlanks" dxfId="12" priority="6">
+    <cfRule type="containsBlanks" dxfId="11" priority="6">
       <formula>LEN(TRIM(B35))=0</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="12" priority="7">
+    <cfRule type="notContainsBlanks" dxfId="10" priority="7">
       <formula>LEN(TRIM(B35))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37:C37">
-    <cfRule type="notContainsBlanks" dxfId="13" priority="8">
+    <cfRule type="notContainsBlanks" dxfId="9" priority="8">
       <formula>LEN(TRIM(B37))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B55:C55">
-    <cfRule type="containsBlanks" dxfId="12" priority="9">
+    <cfRule type="containsBlanks" dxfId="8" priority="9">
       <formula>LEN(TRIM(B55))=0</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="12" priority="10">
+    <cfRule type="notContainsBlanks" dxfId="7" priority="10">
       <formula>LEN(TRIM(B55))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B57:C57">
-    <cfRule type="notContainsBlanks" dxfId="13" priority="11">
+    <cfRule type="notContainsBlanks" dxfId="6" priority="11">
       <formula>LEN(TRIM(B57))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B75:C75">
-    <cfRule type="containsBlanks" dxfId="12" priority="12">
+    <cfRule type="containsBlanks" dxfId="5" priority="12">
       <formula>LEN(TRIM(B75))=0</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="12" priority="13">
+    <cfRule type="notContainsBlanks" dxfId="4" priority="13">
       <formula>LEN(TRIM(B75))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B76:C76">
-    <cfRule type="notContainsBlanks" dxfId="13" priority="14">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="14">
       <formula>LEN(TRIM(B76))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:C7">
-    <cfRule type="containsBlanks" dxfId="12" priority="3">
+    <cfRule type="containsBlanks" dxfId="2" priority="3">
       <formula>LEN(TRIM(B7))=0</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="12" priority="4">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="4">
       <formula>LEN(TRIM(B7))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:C9">
-    <cfRule type="notContainsBlanks" dxfId="13" priority="5">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="5">
       <formula>LEN(TRIM(B9))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
